--- a/evaluation/results/isolation_forest/augmented/magnitude_4/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/magnitude_4/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7209737827715356</v>
+        <v>0.7059925093632958</v>
       </c>
       <c r="C2">
-        <v>0.943609022556391</v>
+        <v>0.6656626506024096</v>
       </c>
       <c r="D2">
-        <v>0.4700374531835206</v>
+        <v>0.8277153558052435</v>
       </c>
       <c r="E2">
-        <v>0.6274999999999999</v>
+        <v>0.7378964941569283</v>
       </c>
       <c r="F2">
-        <v>0.52248126561199</v>
+        <v>0.7892857142857143</v>
       </c>
       <c r="G2">
-        <v>0.479289071680376</v>
+        <v>0.8200371057513914</v>
       </c>
       <c r="H2">
-        <v>0.7209737827715356</v>
+        <v>0.818462525775365</v>
       </c>
       <c r="I2">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="K2">
-        <v>519</v>
+        <v>312</v>
       </c>
       <c r="L2">
-        <v>283</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6471321695760599</v>
+        <v>0.7722772277227723</v>
       </c>
       <c r="C2">
-        <v>0.9719101123595506</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="D2">
-        <v>0.7769461077844312</v>
+        <v>0.6652452025586354</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.943609022556391</v>
+        <v>0.6656626506024096</v>
       </c>
       <c r="C3">
-        <v>0.4700374531835206</v>
+        <v>0.8277153558052435</v>
       </c>
       <c r="D3">
-        <v>0.6274999999999999</v>
+        <v>0.7378964941569283</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7209737827715356</v>
+        <v>0.7059925093632958</v>
       </c>
       <c r="C4">
-        <v>0.7209737827715356</v>
+        <v>0.7059925093632958</v>
       </c>
       <c r="D4">
-        <v>0.7209737827715356</v>
+        <v>0.7059925093632958</v>
       </c>
       <c r="E4">
-        <v>0.7209737827715356</v>
+        <v>0.7059925093632958</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7953705960662254</v>
+        <v>0.718969939162591</v>
       </c>
       <c r="C5">
-        <v>0.7209737827715356</v>
+        <v>0.7059925093632959</v>
       </c>
       <c r="D5">
-        <v>0.7022230538922156</v>
+        <v>0.7015708483577818</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7953705960662254</v>
+        <v>0.7189699391625909</v>
       </c>
       <c r="C6">
-        <v>0.7209737827715356</v>
+        <v>0.7059925093632958</v>
       </c>
       <c r="D6">
-        <v>0.7022230538922156</v>
+        <v>0.7015708483577818</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>519</v>
+        <v>312</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>283</v>
+        <v>92</v>
       </c>
       <c r="C3">
-        <v>251</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
